--- a/data/quad_svm_results.xlsx
+++ b/data/quad_svm_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.726752</v>
+        <v>0.732948</v>
       </c>
       <c r="B2" t="n">
-        <v>0.094253</v>
+        <v>0.126739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.012757</v>
+        <v>0.011784</v>
       </c>
       <c r="D2" t="n">
         <v>0.7009379999999999</v>
